--- a/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
+++ b/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
@@ -1192,6 +1192,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1200,18 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2535,7 +2535,7 @@
         <v>91</v>
       </c>
       <c r="E36" s="24">
-        <v>287483.13</v>
+        <v>278483.13</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>24</v>
@@ -2750,36 +2750,36 @@
       <c r="A2" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2787,34 +2787,34 @@
       <c r="A6" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
@@ -2940,14 +2940,14 @@
       <c r="A24" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
@@ -2983,9 +2983,9 @@
       <c r="E27" s="87"/>
       <c r="F27" s="87"/>
       <c r="G27" s="87"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
     </row>
     <row r="28" spans="1:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
@@ -3023,28 +3023,28 @@
       <c r="A31" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B31:G31"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3117,31 +3117,31 @@
       <c r="A6" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -3880,34 +3880,34 @@
       <c r="A6" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
     </row>
     <row r="7" spans="1:7" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">

--- a/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
+++ b/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'AR-100 AR Leadsheet'!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'AR-101 AR Testwork'!$A$1:$F$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'AR-102 Allowance Roll Forward'!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'AR-102 Allowance Roll Forward'!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -112,7 +112,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Please perform more procedures on the unconfirmed selections where cash receipt was not verified (denoted by your tickmark c), tracing to the subsidiary ledger is not sufficient. See the audit program for guidance regarding the procedures and evidence you should request (step 1F). It is really important that you ensure the receivables are valid and properly document this work.</t>
+Please perform more procedures on the unconfirmed selections (denoted by your tickmark c), tracing to the subsidiary ledger is not sufficient. See the audit program for guidance regarding the procedures and evidence you should request (step 1F). It is really important that you ensure the receivables are valid and properly document this work.</t>
         </r>
       </text>
     </comment>
@@ -146,8 +146,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Please review the firm guidance on sample sizes. It is important that you understand how to choose a sample that is sufficient for concluding on both a test of details and a test of control. Based on my review of our sample selections calculations at AR-200, the testing we have performed is sufficient for the test of the AR balance, but not the test of the write-off authorizations.
-Please revise the sample selection to separately note the sample size for the test of details (25) and for the test of control (35; because the total write-offs per the 20X3 write-off schedule was 111). Please also add an explanation to the @ tickmark to describe how and why additional selections for the test of control were made. My Review Note 5 of 6 and the firm guidance should help with this.</t>
+Please review the firm guidance on sample sizes. It is important that you understand how to choose a sample that is sufficient for concluding on both a test of details and a test of control. Based on my review of our sample selections calculations, the testing we have performed is sufficient for the test of the AR balance, but not the test of the write-off authorizations.
+Please revise the sample selection to separately note the sample size for the test of details (25) and for the test of control (35; because the total write-offs per the 20X3 write-off schedule were 111). Please also add an explanation to the @ tickmark to describe how and why additional selections for the test of control were made. My Review Note 5 of 6 and the firm guidance should help with this.</t>
         </r>
       </text>
     </comment>
@@ -357,9 +357,6 @@
     <t>Traced and agreed to Accounts Receivable Aging Subsidiary Journal, without exception.</t>
   </si>
   <si>
-    <t>Based on review of supporting documentation and discussion with management, credit amounts are due to customer overpayments.  Traced and agreed amounts to supporting documentation.  The customer has been informed of the overpayment and will apply the credit to future purchases of the customer.  Amount has been reclassified as a liability.  Please see "Other Liabilities" testing for further information.</t>
-  </si>
-  <si>
     <t>8500-1000</t>
   </si>
   <si>
@@ -541,12 +538,6 @@
   </si>
   <si>
     <t>Agreed to prior year workpapers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vouched selections to supporting documentation and correspondence with the customer that indicated amount is uncollectible. </t>
-  </si>
-  <si>
-    <t>Amount was vouched and agreed to shipping/receiving records and credit memo.  Amount relates to returned merchandise in which ownership was transferred back to Sprandel, Inc. on the last business day of 20X3. Due to the clear immateriality of the amount, no further investigation is warranted.</t>
   </si>
   <si>
     <t>AR Leadsheet</t>
@@ -733,8 +724,40 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">PROCEDURES:  The accounts receivable detail provided by the client was examined for credit balances, non-trade receivables, and long-term receivables. The only items found (2 credit balances totaling $193,726) are documented and tested below in accordance with audit program step #3. No assigned, pledged, or factored receivables were found. There were no related parties balances and no balances with group companies. The total population of credit memos issued during the 15 day period before year end was $502,515 (see AR-104A). The total population of credit memos issued during the 15 day period after year end was $506,298 (see AR-104A). 3 selections were chosen randomly from each of the populations for testing.  Amounts were traced and agreed to supporting documents in accordance with audit program step #4.
+</t>
+  </si>
+  <si>
+    <t>CONCLUSION:  Based on work performed during interim testing and at this workpaper, accounts receivable credit balances appear to be fairly stated and recorded in the correct period.</t>
+  </si>
+  <si>
+    <t>Credit Balance &amp; Credit Memo Cutoff Testwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURPOSE:  The purpose of this workpaper is to document presentation and cutoff testing of accounts receivable.
+</t>
+  </si>
+  <si>
+    <t>Cutoff Testing (Early Cutoff)</t>
+  </si>
+  <si>
+    <t>Cutoff Testing (Late Cutoff)</t>
+  </si>
+  <si>
+    <t>The amount was vouched and agreed to shipping/receiving documents and associated credit memo. The amount appears correctly classified as a credit for 20X3.</t>
+  </si>
+  <si>
+    <t>The amount was vouched and agreed to shipping/receiving documents and associated credit memo.  The amount appears correctly classified as a credit for 20X4.</t>
+  </si>
+  <si>
+    <t>The amount was vouched and agreed to shipping/receiving records and credit memo.  The amount relates to returned merchandise in which ownership was transferred back to Sprandel, Inc. on the last business day of 20X3. Due to the clear immateriality of the amount, no further investigation is warranted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vouched selection to supporting documentation and correspondence with the customer that indicated the amount is uncollectible. </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Number of necessary selections was calculated using firm proprietary software based on materiality and risk level. See workpapers at </t>
+      <t xml:space="preserve">The number of necessary selections was calculated using firm proprietary software based on materiality and risk level. See workpapers at </t>
     </r>
     <r>
       <rPr>
@@ -756,33 +779,10 @@
     </r>
   </si>
   <si>
-    <t>Vouched write-off memo amount and ensured authorization by the appropriate account manager and the account supervisor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDURES:  The accounts receivable detail provided by the client was examined for credit balances, non-trade receivables, and long-term receivables. The only items found (2 credit balances totaling $193,726) are documented and tested below in accordance with audit program step #3. No assigned, pledged, or factored receivables were found. There were no related parties balances and no balances with group companies. The total population of credit memos issued during the 15 day period before year end was $502,515 (see AR-104A). The total population of credit memos issued during the 15 day period after year end was $506,298 (see AR-104A). 3 selections were chosen randomly from each of the populations for testing.  Amounts were traced and agreed to supporting documents in accordance with audit program step #4.
-</t>
-  </si>
-  <si>
-    <t>CONCLUSION:  Based on work performed during interim testing and at this workpaper, accounts receivable credit balances appear to be fairly stated and recorded in the correct period.</t>
-  </si>
-  <si>
-    <t>Amounts were vouched and agreed to shipping/receiving documents and associated credit memo. Amount appears correctly classified as a credit for 20X3.</t>
-  </si>
-  <si>
-    <t>Amounts were vouched and agreed to shipping/receiving documents and associated credit memo.  Amount appears correctly classified as a credit for 20X4.</t>
-  </si>
-  <si>
-    <t>Credit Balance &amp; Credit Memo Cutoff Testwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURPOSE:  The purpose of this workpaper is to document presentation and cutoff testing of accounts receivable.
-</t>
-  </si>
-  <si>
-    <t>Cutoff Testing (Early Cutoff)</t>
-  </si>
-  <si>
-    <t>Cutoff Testing (Late Cutoff)</t>
+    <t>Based on the review of supporting documentation and discussion with management, credit amounts are due to customer overpayments.  Traced and agreed the amount to supporting documentation.  The customer was informed of the overpayment and will apply the credit to future purchases of the customer.  The amount was reclassified as a liability.  Please see "Other Liabilities" testing for further information.</t>
+  </si>
+  <si>
+    <t>Vouched write-off memo amount and ensured authorization by the appropriate account manager and the accounts receivable supervisor.</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1153,6 +1153,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1192,6 +1195,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1203,15 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1647,54 +1650,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="A2" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="A3" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="A4" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="A6" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
@@ -1721,11 +1724,11 @@
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
@@ -1738,19 +1741,19 @@
         <v>38</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="31">
         <v>121838485</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="36">
         <v>118481516</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1758,10 +1761,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="38">
         <v>5376644</v>
@@ -1794,11 +1797,11 @@
     <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.25">
       <c r="C14" s="41"/>
       <c r="D14" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G14" s="31"/>
       <c r="H14" s="22"/>
@@ -1813,7 +1816,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="44">
         <v>3426313</v>
@@ -1837,10 +1840,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="31">
         <v>1476290243</v>
@@ -1858,15 +1861,15 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,16 +1878,16 @@
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
@@ -1897,16 +1900,16 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+        <v>62</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
@@ -1919,10 +1922,10 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="50"/>
@@ -1971,72 +1974,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="A2" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="A3" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
+      <c r="A4" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-    </row>
-    <row r="7" spans="1:7" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="A8" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
@@ -2055,7 +2058,7 @@
         <v>121883485</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="4"/>
@@ -2077,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2085,7 +2088,7 @@
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>0</v>
@@ -2105,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="15">
         <v>41569</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="17">
         <v>45767.9</v>
@@ -2131,7 +2134,7 @@
         <v>41624</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="21">
         <v>8152858.9500000002</v>
@@ -2151,7 +2154,7 @@
         <v>41687</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="24">
         <v>6264.85</v>
@@ -2172,7 +2175,7 @@
         <v>41699</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="24">
         <v>68585.399999999994</v>
@@ -2192,7 +2195,7 @@
         <v>41700</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="24">
         <v>745714.15</v>
@@ -2212,7 +2215,7 @@
         <v>41711</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="24">
         <v>45825.31</v>
@@ -2232,7 +2235,7 @@
         <v>41756</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="24">
         <v>112735.2</v>
@@ -2252,7 +2255,7 @@
         <v>41764</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="24">
         <v>6144758.6100000003</v>
@@ -2266,13 +2269,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="22">
         <v>41767</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="24">
         <v>1765900.99</v>
@@ -2292,7 +2295,7 @@
         <v>41768</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="24">
         <v>57459</v>
@@ -2312,7 +2315,7 @@
         <v>41786</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="24">
         <v>412426.15</v>
@@ -2332,7 +2335,7 @@
         <v>41788</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="24">
         <v>25478.959999999999</v>
@@ -2352,7 +2355,7 @@
         <v>41811</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="24">
         <v>12339.37</v>
@@ -2366,13 +2369,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="22">
         <v>41845</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="24">
         <v>3765490</v>
@@ -2386,13 +2389,13 @@
         <v>15</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="22">
         <v>41877</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="24">
         <v>2780008.12</v>
@@ -2412,7 +2415,7 @@
         <v>41887</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="24">
         <v>311411.42</v>
@@ -2432,7 +2435,7 @@
         <v>41888</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="24">
         <v>56287.11</v>
@@ -2452,7 +2455,7 @@
         <v>41889</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="24">
         <v>89541.5</v>
@@ -2472,7 +2475,7 @@
         <v>41895</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" s="24">
         <v>98546.25</v>
@@ -2492,7 +2495,7 @@
         <v>41900</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="24">
         <v>261.70999999999998</v>
@@ -2512,7 +2515,7 @@
         <v>41903</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="24">
         <v>389546.16</v>
@@ -2532,7 +2535,7 @@
         <v>41965</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="24">
         <v>278483.13</v>
@@ -2552,7 +2555,7 @@
         <v>41990</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="24">
         <v>933652</v>
@@ -2572,7 +2575,7 @@
         <v>42001</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="24">
         <v>247694.3</v>
@@ -2586,13 +2589,13 @@
         <v>25</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="22">
         <v>42002</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="24">
         <v>3456784.42</v>
@@ -2610,27 +2613,27 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
     </row>
     <row r="43" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
+      <c r="B44" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
     </row>
     <row r="45" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
@@ -2644,13 +2647,13 @@
       <c r="A46" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
+      <c r="B46" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
     </row>
     <row r="47" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="49"/>
@@ -2664,13 +2667,13 @@
       <c r="A48" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
     </row>
     <row r="49" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="47"/>
@@ -2682,15 +2685,15 @@
     </row>
     <row r="50" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+        <v>115</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="3"/>
     </row>
   </sheetData>
@@ -2720,10 +2723,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2743,78 +2746,78 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="A2" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="A3" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="A4" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="A6" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="A7" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="A8" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
@@ -2827,10 +2830,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="54">
         <v>5640758</v>
@@ -2856,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="45">
         <v>-3690427</v>
@@ -2883,10 +2886,10 @@
         <v>3426313</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2900,151 +2903,161 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D19" s="60">
         <f>D10+D13+D16</f>
         <v>5376644</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" s="61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
-    </row>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+    </row>
+    <row r="23" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+        <v>62</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+    </row>
+    <row r="25" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
     </row>
-    <row r="27" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-    </row>
-    <row r="28" spans="1:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73" t="s">
+      <c r="B28" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+    </row>
+    <row r="29" spans="1:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
+      <c r="B32" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B32:G32"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B31:G31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3060,9 +3073,7 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3076,86 +3087,86 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="A2" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="A3" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="A4" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+      <c r="A6" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="A7" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
+      <c r="A8" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C11" s="45">
         <f>'AR-102 Allowance Roll Forward'!D13</f>
         <v>-3690427</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,7 +3177,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3181,15 +3192,15 @@
         <v>3</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1">
         <v>2113</v>
@@ -3198,15 +3209,15 @@
         <v>4323.1499999999996</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1">
         <v>2119</v>
@@ -3215,15 +3226,15 @@
         <v>101879.12</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1">
         <v>2121</v>
@@ -3232,15 +3243,15 @@
         <v>2308.2399999999998</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1">
         <v>2124</v>
@@ -3249,15 +3260,15 @@
         <v>7867.19</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1">
         <v>2133</v>
@@ -3266,15 +3277,15 @@
         <v>308.87</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1">
         <v>2137</v>
@@ -3283,10 +3294,10 @@
         <v>1214.75</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3300,10 +3311,10 @@
         <v>8323.1200000000008</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3317,15 +3328,15 @@
         <v>40874.89</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="1">
         <v>2152</v>
@@ -3334,15 +3345,15 @@
         <v>3417.49</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1">
         <v>2159</v>
@@ -3351,15 +3362,15 @@
         <v>785.34</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1">
         <v>2163</v>
@@ -3368,15 +3379,15 @@
         <v>14794.98</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1">
         <v>2167</v>
@@ -3385,15 +3396,15 @@
         <v>6132.54</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" s="15">
         <v>2169</v>
@@ -3402,15 +3413,15 @@
         <v>560.48</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1">
         <v>2171</v>
@@ -3419,15 +3430,15 @@
         <v>1313.8</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1">
         <v>2172</v>
@@ -3436,15 +3447,15 @@
         <v>80.319999999999993</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1">
         <v>2175</v>
@@ -3453,15 +3464,15 @@
         <v>56704.45</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1">
         <v>2190</v>
@@ -3470,15 +3481,15 @@
         <v>9009.6200000000008</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1">
         <v>2193</v>
@@ -3487,15 +3498,15 @@
         <v>1454.67</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1">
         <v>2197</v>
@@ -3504,15 +3515,15 @@
         <v>645.53</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1">
         <v>2202</v>
@@ -3521,15 +3532,15 @@
         <v>890.76</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1">
         <v>2208</v>
@@ -3538,15 +3549,15 @@
         <v>1505.38</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1">
         <v>2211</v>
@@ -3555,15 +3566,15 @@
         <v>67.14</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B38" s="1">
         <v>2214</v>
@@ -3572,15 +3583,15 @@
         <v>4308.83</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1">
         <v>2220</v>
@@ -3589,15 +3600,15 @@
         <v>21367.14</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1">
         <v>2221</v>
@@ -3606,10 +3617,10 @@
         <v>497.8</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -3734,26 +3745,26 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="93" t="s">
+      <c r="A52" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="105"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
     </row>
     <row r="55" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47"/>
@@ -3765,15 +3776,15 @@
     </row>
     <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
     </row>
     <row r="57" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
@@ -3785,15 +3796,15 @@
     </row>
     <row r="58" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
+        <v>115</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3824,7 +3835,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -3839,75 +3850,75 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="A2" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="A3" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="A4" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="A6" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:7" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="A7" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="A8" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3937,7 +3948,7 @@
         <v>75879</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,13 +3962,13 @@
         <v>117847</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
@@ -3996,10 +4007,10 @@
         <v>3041</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4016,10 +4027,10 @@
         <v>3044</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -4036,10 +4047,10 @@
         <v>3045</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -4049,7 +4060,7 @@
     </row>
     <row r="23" spans="1:9" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
@@ -4087,10 +4098,10 @@
         <v>3046</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4107,10 +4118,10 @@
         <v>3047</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="26"/>
     </row>
@@ -4128,10 +4139,10 @@
         <v>3051</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4139,29 +4150,29 @@
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="106"/>
     </row>
     <row r="32" spans="1:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
+        <v>53</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="81"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -4179,16 +4190,16 @@
     </row>
     <row r="35" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
+        <v>54</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
     </row>
     <row r="36" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47"/>
@@ -4201,16 +4212,16 @@
     </row>
     <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
+        <v>55</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
     </row>
     <row r="38" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="47"/>
@@ -4223,16 +4234,16 @@
     </row>
     <row r="39" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
+        <v>56</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="81"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>

--- a/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
+++ b/teaching-cases/sprandel-inc/downloads/Workpapers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmandiola\Dropbox\Teaching Case_Sprandel Inc\05 IAE Submission\IAE R&amp;R2 SUBMISSION\New Documentation for Website\New Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmandiola\Dropbox\Teaching Case_Sprandel Inc\05 IAE Submission\IAE Acceptance_January 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="5010" tabRatio="724"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10995" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="AR-100 AR Leadsheet" sheetId="8" r:id="rId1"/>
@@ -567,9 +567,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Foot.</t>
-  </si>
-  <si>
     <t>Janet's Jugs</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Vouched write-off memo amount and ensured authorization by the appropriate account manager and the accounts receivable supervisor.</t>
+  </si>
+  <si>
+    <t>Footed.</t>
   </si>
 </sst>
 </file>
@@ -853,11 +853,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10.5"/>
@@ -877,6 +872,11 @@
       <b/>
       <u/>
       <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -982,15 +982,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1010,9 +1004,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1062,10 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1082,9 +1073,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,7 +1082,7 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1110,7 +1098,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1135,7 +1123,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1150,11 +1138,20 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1177,7 +1174,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1192,7 +1188,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,23 +1206,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1641,97 +1633,97 @@
     <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1740,19 +1732,19 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <v>121838485</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="33">
         <v>118481516</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1763,50 +1755,50 @@
       <c r="B12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>5376644</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="39">
+      <c r="F12" s="36">
         <v>5640758</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="31">
+      <c r="C13" s="38"/>
+      <c r="D13" s="28">
         <f>D11-D12</f>
         <v>116461841</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="36">
+      <c r="F13" s="33">
         <f>F11-F12</f>
         <v>112840758</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="C14" s="41"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1815,28 +1807,28 @@
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>3426313</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="44">
+      <c r="F15" s="41">
         <v>4451250</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
+      <c r="C16" s="28"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1845,93 +1837,93 @@
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <v>1476290243</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>1353210500</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="B25" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1958,7 +1950,7 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1973,728 +1965,728 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="77" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
+      <c r="A6" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:7" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
+      <c r="A7" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
     </row>
     <row r="8" spans="1:7" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
         <v>121883485</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>25</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="78">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>41569</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>45767.9</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="78">
         <v>2</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>41624</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>8152858.9500000002</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="78">
         <v>3</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>41687</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>6264.85</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="78">
         <v>4</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>41699</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="21">
         <v>68585.399999999994</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>41700</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>745714.15</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="78">
         <v>6</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>41711</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>45825.31</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="78">
         <v>7</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>41756</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>112735.2</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="78">
         <v>8</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <v>41764</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>6144758.6100000003</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="78">
         <v>9</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>41767</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>1765900.99</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="78">
         <v>10</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="19">
         <v>41768</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>57459</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="78">
         <v>11</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="19">
         <v>41786</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>412426.15</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="78">
         <v>12</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>41788</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>25478.959999999999</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="78">
         <v>13</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>41811</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="21">
         <v>12339.37</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="78">
         <v>14</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="19">
         <v>41845</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="21">
         <v>3765490</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="78">
         <v>15</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>41877</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>2780008.12</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="78">
         <v>16</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="19">
         <v>41887</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="21">
         <v>311411.42</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="78">
         <v>17</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="19">
         <v>41888</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <v>56287.11</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="78">
         <v>18</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="19">
         <v>41889</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>89541.5</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="78">
         <v>19</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="19">
         <v>41895</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>98546.25</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="78">
         <v>20</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="19">
         <v>41900</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <v>261.70999999999998</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="78">
         <v>21</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <v>41903</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="21">
         <v>389546.16</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="78">
         <v>22</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="19">
         <v>41965</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="21">
         <v>278483.13</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="78">
         <v>23</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="19">
         <v>41990</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <v>933652</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="78">
         <v>24</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="19">
         <v>42001</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <v>247694.3</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="78">
         <v>25</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="19">
         <v>42002</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="21">
         <v>3456784.42</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="28"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="94"/>
     </row>
     <row r="43" spans="1:6" ht="7.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+    </row>
+    <row r="45" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+    </row>
+    <row r="47" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+    </row>
+    <row r="49" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-    </row>
-    <row r="45" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-    </row>
-    <row r="47" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-    </row>
-    <row r="49" spans="1:7" ht="5.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="3"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2726,7 +2718,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -2745,319 +2737,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="77" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="2"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
+      <c r="A7" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
     </row>
     <row r="8" spans="1:14" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="50">
         <v>5640758</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="I10" s="56"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D12" s="45"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="42">
         <v>-3690427</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D14" s="45"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D15" s="45"/>
-      <c r="I15" s="26"/>
-      <c r="N15" s="58"/>
+      <c r="D15" s="42"/>
+      <c r="I15" s="23"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="42">
         <f>'AR-100 AR Leadsheet'!D15</f>
         <v>3426313</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="45"/>
-      <c r="E17" s="55"/>
-      <c r="H17" s="56"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="51"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="45"/>
-      <c r="H18" s="56"/>
+      <c r="D18" s="42"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="60">
+      <c r="C19" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="56">
         <f>D10+D13+D16</f>
         <v>5376644</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="61" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="55"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
     </row>
     <row r="25" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="B26" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
     </row>
     <row r="28" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+    </row>
+    <row r="29" spans="1:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-    </row>
-    <row r="29" spans="1:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="1:10" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B32:G32"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3073,7 +3065,9 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3086,725 +3080,725 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="77" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+    </row>
+    <row r="8" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-    </row>
-    <row r="7" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-    </row>
-    <row r="8" spans="1:7" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="B11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="42">
         <f>'AR-102 Allowance Roll Forward'!D13</f>
         <v>-3690427</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="53" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>25</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="51" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="65" t="s">
+      <c r="D15" s="60" t="s">
         <v>133</v>
       </c>
+      <c r="E15" s="61" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>118</v>
+      <c r="A16" s="78" t="s">
+        <v>117</v>
       </c>
       <c r="B16" s="1">
         <v>2113</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="62">
         <v>4323.1499999999996</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>132</v>
+      <c r="E16" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>119</v>
+      <c r="A17" s="78" t="s">
+        <v>118</v>
       </c>
       <c r="B17" s="1">
         <v>2119</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="62">
         <v>101879.12</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>132</v>
+      <c r="E17" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>119</v>
+      <c r="A18" s="78" t="s">
+        <v>118</v>
       </c>
       <c r="B18" s="1">
         <v>2121</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="62">
         <v>2308.2399999999998</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>132</v>
+      <c r="E18" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>120</v>
+      <c r="A19" s="78" t="s">
+        <v>119</v>
       </c>
       <c r="B19" s="1">
         <v>2124</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="62">
         <v>7867.19</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>132</v>
+      <c r="E19" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>121</v>
+      <c r="A20" s="78" t="s">
+        <v>120</v>
       </c>
       <c r="B20" s="1">
         <v>2133</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="62">
         <v>308.87</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>132</v>
+      <c r="E20" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>121</v>
+      <c r="A21" s="78" t="s">
+        <v>120</v>
       </c>
       <c r="B21" s="1">
         <v>2137</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="62">
         <v>1214.75</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>132</v>
+      <c r="E21" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="78" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>2140</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="62">
         <v>8323.1200000000008</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>132</v>
+      <c r="E22" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="78" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>2148</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="62">
         <v>40874.89</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>132</v>
+      <c r="E23" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>122</v>
+      <c r="A24" s="78" t="s">
+        <v>121</v>
       </c>
       <c r="B24" s="1">
         <v>2152</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="62">
         <v>3417.49</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>132</v>
+      <c r="E24" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>123</v>
+      <c r="A25" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>2159</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="62">
         <v>785.34</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>132</v>
+      <c r="E25" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>123</v>
+      <c r="A26" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="B26" s="1">
         <v>2163</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="62">
         <v>14794.98</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>132</v>
+      <c r="E26" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>129</v>
+      <c r="A27" s="78" t="s">
+        <v>128</v>
       </c>
       <c r="B27" s="1">
         <v>2167</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="62">
         <v>6132.54</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>132</v>
+      <c r="E27" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="A28" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="12">
         <v>2169</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="64">
         <v>560.48</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>132</v>
+      <c r="E28" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>129</v>
+      <c r="A29" s="78" t="s">
+        <v>128</v>
       </c>
       <c r="B29" s="1">
         <v>2171</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="62">
         <v>1313.8</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>132</v>
+      <c r="E29" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>129</v>
+      <c r="A30" s="78" t="s">
+        <v>128</v>
       </c>
       <c r="B30" s="1">
         <v>2172</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="62">
         <v>80.319999999999993</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>132</v>
+      <c r="E30" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>124</v>
+      <c r="A31" s="78" t="s">
+        <v>123</v>
       </c>
       <c r="B31" s="1">
         <v>2175</v>
       </c>
-      <c r="C31" s="66">
+      <c r="C31" s="62">
         <v>56704.45</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="29" t="s">
-        <v>132</v>
+      <c r="E31" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>126</v>
+      <c r="A32" s="78" t="s">
+        <v>125</v>
       </c>
       <c r="B32" s="1">
         <v>2190</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="62">
         <v>9009.6200000000008</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>132</v>
+      <c r="E32" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>128</v>
+      <c r="A33" s="78" t="s">
+        <v>127</v>
       </c>
       <c r="B33" s="1">
         <v>2193</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="62">
         <v>1454.67</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>132</v>
+      <c r="E33" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>125</v>
+      <c r="A34" s="78" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="1">
         <v>2197</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="62">
         <v>645.53</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>132</v>
+      <c r="E34" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>125</v>
+      <c r="A35" s="78" t="s">
+        <v>124</v>
       </c>
       <c r="B35" s="1">
         <v>2202</v>
       </c>
-      <c r="C35" s="66">
+      <c r="C35" s="62">
         <v>890.76</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="29" t="s">
-        <v>132</v>
+      <c r="E35" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>125</v>
+      <c r="A36" s="78" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="1">
         <v>2208</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="62">
         <v>1505.38</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>132</v>
+      <c r="E36" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>125</v>
+      <c r="A37" s="78" t="s">
+        <v>124</v>
       </c>
       <c r="B37" s="1">
         <v>2211</v>
       </c>
-      <c r="C37" s="66">
+      <c r="C37" s="62">
         <v>67.14</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>132</v>
+      <c r="E37" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>127</v>
+      <c r="A38" s="78" t="s">
+        <v>126</v>
       </c>
       <c r="B38" s="1">
         <v>2214</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="62">
         <v>4308.83</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>132</v>
+      <c r="E38" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>127</v>
+      <c r="A39" s="78" t="s">
+        <v>126</v>
       </c>
       <c r="B39" s="1">
         <v>2220</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="62">
         <v>21367.14</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>132</v>
+      <c r="E39" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>127</v>
+      <c r="A40" s="78" t="s">
+        <v>126</v>
       </c>
       <c r="B40" s="1">
         <v>2221</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="62">
         <v>497.8</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="E40" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="19">
         <v>2110</v>
       </c>
-      <c r="C41" s="69">
+      <c r="C41" s="65">
         <v>170130</v>
       </c>
-      <c r="D41" s="70"/>
+      <c r="D41" s="66"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="19">
         <v>2125</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C42" s="65">
         <v>88141.09</v>
       </c>
-      <c r="D42" s="70"/>
+      <c r="D42" s="66"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="71">
+      <c r="B43" s="67">
         <v>2139</v>
       </c>
-      <c r="C43" s="69">
+      <c r="C43" s="65">
         <v>11575.15</v>
       </c>
-      <c r="D43" s="70"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="71">
+      <c r="B44" s="67">
         <v>2141</v>
       </c>
-      <c r="C44" s="69">
+      <c r="C44" s="65">
         <v>6570.6</v>
       </c>
-      <c r="D44" s="70"/>
+      <c r="D44" s="66"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="71">
+      <c r="B45" s="67">
         <v>2149</v>
       </c>
-      <c r="C45" s="69">
+      <c r="C45" s="65">
         <v>5238.33</v>
       </c>
-      <c r="D45" s="70"/>
+      <c r="D45" s="66"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="71">
+      <c r="B46" s="67">
         <v>2155</v>
       </c>
-      <c r="C46" s="69">
+      <c r="C46" s="65">
         <v>286.72000000000003</v>
       </c>
-      <c r="D46" s="70"/>
+      <c r="D46" s="66"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="71">
+      <c r="B47" s="67">
         <v>2178</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="65">
         <v>9625.3700000000008</v>
       </c>
-      <c r="D47" s="70"/>
-    </row>
-    <row r="48" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="D47" s="66"/>
+    </row>
+    <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="71">
+      <c r="B48" s="67">
         <v>2181</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="65">
         <v>76106.100000000006</v>
       </c>
-      <c r="D48" s="70"/>
-    </row>
-    <row r="49" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="D48" s="66"/>
+    </row>
+    <row r="49" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="71">
+      <c r="B49" s="67">
         <v>2182</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="65">
         <v>53521.4</v>
       </c>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="D49" s="66"/>
+    </row>
+    <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="71">
+      <c r="B50" s="67">
         <v>2183</v>
       </c>
-      <c r="C50" s="68">
+      <c r="C50" s="64">
         <v>8568.56</v>
       </c>
-      <c r="D50" s="70"/>
+      <c r="D50" s="66"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
     </row>
     <row r="54" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+    </row>
+    <row r="55" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="79"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+    </row>
+    <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+    </row>
+    <row r="57" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="79"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-    </row>
-    <row r="55" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-    </row>
-    <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-    </row>
-    <row r="57" spans="1:6" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-    </row>
-    <row r="58" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3835,7 +3829,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -3849,406 +3843,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="A2" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="78">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="74">
         <v>75879</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="78">
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="74">
         <v>117847</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="76">
+        <v>96541.67</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3041</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="76">
+        <v>325845.12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3044</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>3</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="74">
+        <v>75987.34</v>
+      </c>
+      <c r="D21" s="19">
+        <v>3045</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="11" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+    </row>
+    <row r="24" spans="1:9" s="19" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="78">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="80">
-        <v>96541.67</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3041</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>2</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="80">
-        <v>325845.12</v>
-      </c>
-      <c r="D20" s="22">
-        <v>3044</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>3</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="78">
-        <v>75987.34</v>
-      </c>
-      <c r="D21" s="22">
-        <v>3045</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-    </row>
-    <row r="23" spans="1:9" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-    </row>
-    <row r="24" spans="1:9" s="22" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="74">
         <v>5879</v>
       </c>
       <c r="D26" s="1">
         <v>3046</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="51" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="78">
         <v>2</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="74">
         <v>114741.03</v>
       </c>
       <c r="D27" s="1">
         <v>3047</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="78">
         <v>3</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="74">
         <v>369765.44</v>
       </c>
       <c r="D28" s="1">
         <v>3051</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="78"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
     </row>
     <row r="32" spans="1:9" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="B33" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
     </row>
     <row r="34" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+    </row>
+    <row r="36" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+    </row>
+    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-    </row>
-    <row r="36" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="91" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+    </row>
+    <row r="38" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-    </row>
-    <row r="38" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:12" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
